--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,25 +508,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="D2" t="n">
         <v>-4</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.2</v>
+        <v>-5.13</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.37</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>-4</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.13</v>
+        <v>-5.07</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.37</v>
+        <v>3.57</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>-4</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.07</v>
+        <v>-5</v>
       </c>
       <c r="F4" t="n">
         <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.57</v>
+        <v>3.83</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>3.83</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -672,25 +672,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B6" t="n">
         <v>0.01</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D6" t="n">
         <v>-3</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -713,25 +713,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C7" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="D7" t="n">
         <v>-3</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>5.17</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -754,25 +754,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B8" t="n">
         <v>0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D8" t="n">
         <v>-3</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -795,25 +795,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D9" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.6</v>
+        <v>-4.53</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>5.33</v>
+        <v>6.23</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B10" t="n">
         <v>0.05</v>
@@ -848,13 +848,13 @@
         <v>-4</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.53</v>
+        <v>-4.47</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>6.23</v>
+        <v>7.13</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B11" t="n">
         <v>0.05</v>
@@ -889,13 +889,13 @@
         <v>-4</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.47</v>
+        <v>-4.4</v>
       </c>
       <c r="F11" t="n">
         <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>7.13</v>
+        <v>8.1</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -918,25 +918,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C12" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>8.1</v>
+        <v>8.77</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -959,25 +959,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B13" t="n">
         <v>0.02</v>
       </c>
       <c r="C13" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D13" t="n">
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>8.77</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C14" t="n">
         <v>3.13</v>
@@ -1012,13 +1012,13 @@
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>9.33</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B15" t="n">
         <v>0.01</v>
@@ -1053,13 +1053,13 @@
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="F15" t="n">
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>9.33</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>

--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45954</v>
+        <v>45955</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>-4</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.13</v>
+        <v>-5.07</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.37</v>
+        <v>3.57</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -561,13 +561,13 @@
         <v>-4</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.07</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>3.57</v>
+        <v>3.83</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -590,25 +590,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>3.83</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B5" t="n">
         <v>0.01</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D5" t="n">
         <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -672,25 +672,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C6" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="D6" t="n">
         <v>-3</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>5.17</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -713,25 +713,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B7" t="n">
         <v>0.02</v>
       </c>
       <c r="C7" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D7" t="n">
         <v>-3</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -754,25 +754,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D8" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.6</v>
+        <v>-4.53</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>5.33</v>
+        <v>6.23</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B9" t="n">
         <v>0.05</v>
@@ -807,13 +807,13 @@
         <v>-4</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.53</v>
+        <v>-4.47</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>6.23</v>
+        <v>7.13</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B10" t="n">
         <v>0.05</v>
@@ -848,13 +848,13 @@
         <v>-4</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.47</v>
+        <v>-4.4</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>7.13</v>
+        <v>8.1</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -877,25 +877,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C11" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D11" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>8.1</v>
+        <v>8.77</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -918,25 +918,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B12" t="n">
         <v>0.02</v>
       </c>
       <c r="C12" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D12" t="n">
         <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>8.77</v>
+        <v>9</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -959,25 +959,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D13" t="n">
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -1000,25 +1000,25 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B14" t="n">
         <v>0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D14" t="n">
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>9.33</v>
+        <v>9.1</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1041,25 +1041,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B15" t="n">
         <v>0.01</v>
       </c>
       <c r="C15" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D15" t="n">
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>

--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>-4</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.07</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>3.57</v>
+        <v>3.83</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -549,25 +549,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>3.83</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -590,25 +590,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B4" t="n">
         <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D4" t="n">
         <v>-3</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C5" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="D5" t="n">
         <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>4.7</v>
+        <v>5.17</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -658,39 +658,39 @@
         <v>-15</v>
       </c>
       <c r="J5" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K5" t="n">
         <v>-0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B6" t="n">
         <v>0.02</v>
       </c>
       <c r="C6" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D6" t="n">
         <v>-3</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -699,39 +699,39 @@
         <v>-15</v>
       </c>
       <c r="J6" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K6" t="n">
         <v>-0.25</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.6</v>
+        <v>-4.53</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>5.33</v>
+        <v>6.23</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -740,21 +740,21 @@
         <v>-15</v>
       </c>
       <c r="J7" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K7" t="n">
         <v>-0.25</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B8" t="n">
         <v>0.05</v>
@@ -766,13 +766,13 @@
         <v>-4</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.53</v>
+        <v>-4.47</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>6.23</v>
+        <v>7.13</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -781,21 +781,21 @@
         <v>-15</v>
       </c>
       <c r="J8" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K8" t="n">
         <v>-0.25</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B9" t="n">
         <v>0.05</v>
@@ -807,13 +807,13 @@
         <v>-4</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.47</v>
+        <v>-4.4</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>7.13</v>
+        <v>8.1</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -822,39 +822,39 @@
         <v>-15</v>
       </c>
       <c r="J9" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K9" t="n">
         <v>-0.25</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D10" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>8.1</v>
+        <v>8.77</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -863,39 +863,39 @@
         <v>-15</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K10" t="n">
         <v>-0.25</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B11" t="n">
         <v>0.02</v>
       </c>
       <c r="C11" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D11" t="n">
         <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>8.77</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -904,39 +904,39 @@
         <v>-15</v>
       </c>
       <c r="J11" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K11" t="n">
         <v>-0.25</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D12" t="n">
         <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -945,39 +945,39 @@
         <v>-15</v>
       </c>
       <c r="J12" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K12" t="n">
         <v>-0.25</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B13" t="n">
         <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="D13" t="n">
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.029999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -986,39 +986,39 @@
         <v>-15</v>
       </c>
       <c r="J13" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K13" t="n">
         <v>-0.25</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="D14" t="n">
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1027,39 +1027,39 @@
         <v>-15</v>
       </c>
       <c r="J14" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K14" t="n">
         <v>-0.25</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="D15" t="n">
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.93</v>
+        <v>-3.87</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.23</v>
+        <v>9.43</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
@@ -1068,16 +1068,16 @@
         <v>-15</v>
       </c>
       <c r="J15" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K15" t="n">
         <v>-0.25</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,25 +508,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45956</v>
+        <v>45957</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>3.83</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -549,25 +549,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B3" t="n">
         <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D3" t="n">
         <v>-3</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -590,25 +590,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C4" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="D4" t="n">
         <v>-3</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>4.7</v>
+        <v>5.17</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -617,39 +617,39 @@
         <v>-15</v>
       </c>
       <c r="J4" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K4" t="n">
         <v>-0.25</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B5" t="n">
         <v>0.02</v>
       </c>
       <c r="C5" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D5" t="n">
         <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -672,25 +672,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.6</v>
+        <v>-4.53</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>5.33</v>
+        <v>6.23</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B7" t="n">
         <v>0.05</v>
@@ -725,13 +725,13 @@
         <v>-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.53</v>
+        <v>-4.47</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>6.23</v>
+        <v>7.13</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B8" t="n">
         <v>0.05</v>
@@ -766,13 +766,13 @@
         <v>-4</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.47</v>
+        <v>-4.4</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>7.13</v>
+        <v>8.1</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -795,25 +795,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C9" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D9" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>8.1</v>
+        <v>8.77</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B10" t="n">
         <v>0.02</v>
       </c>
       <c r="C10" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D10" t="n">
         <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>8.77</v>
+        <v>9</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -877,25 +877,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D11" t="n">
         <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -918,25 +918,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B12" t="n">
         <v>0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="D12" t="n">
         <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>9.029999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -959,10 +959,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>3.13</v>
@@ -971,13 +971,13 @@
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.130000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.93</v>
+        <v>-3.87</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.87</v>
+        <v>-3.8</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.43</v>
+        <v>9.5</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>

--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,25 +508,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B2" t="n">
         <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="D2" t="n">
         <v>-3</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -549,25 +549,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="D3" t="n">
         <v>-3</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>5.17</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -576,39 +576,39 @@
         <v>-15</v>
       </c>
       <c r="J3" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K3" t="n">
         <v>-0.25</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B4" t="n">
         <v>0.02</v>
       </c>
       <c r="C4" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="D4" t="n">
         <v>-3</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.6</v>
+        <v>-4.53</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>5.33</v>
+        <v>6.23</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45961</v>
+        <v>45962</v>
       </c>
       <c r="B6" t="n">
         <v>0.05</v>
@@ -684,13 +684,13 @@
         <v>-4</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.53</v>
+        <v>-4.47</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>6.23</v>
+        <v>7.13</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45962</v>
+        <v>45963</v>
       </c>
       <c r="B7" t="n">
         <v>0.05</v>
@@ -725,13 +725,13 @@
         <v>-4</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.47</v>
+        <v>-4.4</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>7.13</v>
+        <v>8.1</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -754,25 +754,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45963</v>
+        <v>45964</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C8" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D8" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>8.1</v>
+        <v>8.77</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -795,25 +795,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45964</v>
+        <v>45965</v>
       </c>
       <c r="B9" t="n">
         <v>0.02</v>
       </c>
       <c r="C9" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D9" t="n">
         <v>-3</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>8.77</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45965</v>
+        <v>45966</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C10" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="D10" t="n">
         <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -877,25 +877,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45966</v>
+        <v>45967</v>
       </c>
       <c r="B11" t="n">
         <v>0.01</v>
       </c>
       <c r="C11" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="D11" t="n">
         <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>9.029999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>3.13</v>
@@ -930,13 +930,13 @@
         <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-4</v>
+        <v>-3.93</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>9.130000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.93</v>
+        <v>-3.87</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>9.300000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45969</v>
+        <v>45970</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.87</v>
+        <v>-3.8</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>9.43</v>
+        <v>9.5</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45970</v>
+        <v>45971</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.8</v>
+        <v>-3.73</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>9.5</v>
+        <v>9.57</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>

--- a/dashboard_recent_data.xlsx
+++ b/dashboard_recent_data.xlsx
@@ -508,25 +508,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45958</v>
+        <v>45961</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.8</v>
+        <v>-4.53</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>4.7</v>
+        <v>6.23</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
@@ -535,39 +535,39 @@
         <v>-15</v>
       </c>
       <c r="J2" t="n">
-        <v>11.98</v>
+        <v>11.69</v>
       </c>
       <c r="K2" t="n">
         <v>-0.25</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45959</v>
+        <v>45962</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C3" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.7</v>
+        <v>-4.47</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>5.17</v>
+        <v>7.13</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -590,25 +590,25 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45960</v>
+        <v>45963</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="D4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.6</v>
+        <v>-4.4</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>5.33</v>
+        <v>8.1</v>
       </c>
       <c r="H4" t="n">
         <v>10</v>
@@ -631,25 +631,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C5" t="n">
-        <v>2.94</v>
+        <v>3.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.53</v>
+        <v>-4.3</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>6.23</v>
+        <v>8.77</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -672,25 +672,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45962</v>
+        <v>45965</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C6" t="n">
-        <v>2.94</v>
+        <v>3.13</v>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.47</v>
+        <v>-4.2</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>7.13</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -713,25 +713,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45963</v>
+        <v>45966</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>8.1</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -754,25 +754,25 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C8" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="D8" t="n">
         <v>-3</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>8.77</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -795,25 +795,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45965</v>
+        <v>45968</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="D9" t="n">
         <v>-3</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.2</v>
+        <v>-3.93</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>9.33</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -836,25 +836,25 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45966</v>
+        <v>45969</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="D10" t="n">
         <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.1</v>
+        <v>-3.87</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>9.029999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -877,25 +877,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45967</v>
+        <v>45970</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="D11" t="n">
         <v>-3</v>
       </c>
       <c r="E11" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>9.130000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -918,25 +918,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C12" t="n">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="D12" t="n">
         <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.93</v>
+        <v>-3.73</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -959,25 +959,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45969</v>
+        <v>45972</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="D13" t="n">
         <v>-3</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.87</v>
+        <v>-3.67</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>9.43</v>
+        <v>9.93</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -1000,25 +1000,25 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45970</v>
+        <v>45973</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C14" t="n">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="D14" t="n">
         <v>-3</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1041,25 +1041,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C15" t="n">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="D15" t="n">
         <v>-3</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.73</v>
+        <v>-3.53</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>9.57</v>
+        <v>10.13</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
